--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -5962,12 +5962,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Utilice los NSG para ayudar a proteger el tráfico a través de las subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5984,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los NSG de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Utilice los NSG para ayudar a proteger el tráfico a través de las subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,7 +6034,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
@@ -6046,7 +6046,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los NSG de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6084,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6096,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y aliméntelos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6139,14 +6139,14 @@
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre zonas de aterrizaje.</t>
+          <t>Habilite los registros de flujo de NSG y aliméntelos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6189,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Para las topologías de WAN virtual, enrute el tráfico entre zonas de aterrizaje a través de Azure Firewall si la organización requiere capacidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6239,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6262,12 +6262,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Cuando utilice ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Para las topologías de WAN virtual, enrute el tráfico entre zonas de aterrizaje a través de Azure Firewall si la organización requiere capacidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6287,12 +6287,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I113" s="16" t="n"/>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6313,7 +6317,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Si el tráfico entre regiones de Azure debe cifrarse, use el emparejamiento de red virtual global para conectar redes virtuales entre regiones.</t>
+          <t>Cuando utilice ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6330,19 +6334,15 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
+          <t>Si el tráfico entre regiones de Azure debe cifrarse, use el emparejamiento de red virtual global para conectar redes virtuales entre regiones.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,7 +6380,7 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6392,7 +6392,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6408,12 +6408,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
+          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,19 +6430,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Evalúe si la última versión de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
+          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,14 +6480,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6508,7 +6513,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Utilice soluciones de socios para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Evalúe si la última versión de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6525,7 +6530,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6533,7 +6538,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6554,7 +6559,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque podría ser aceptable para escenarios a pequeña escala, no lo alentamos a escala debido a la complejidad y los problemas de compatibilidad que podrían surgir.</t>
+          <t>Utilice soluciones de socios para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6571,14 +6576,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6589,17 +6594,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use un área de trabajo de registros de monitor único para administrar plataformas de forma centralizada, excepto cuando el control de acceso basado en roles (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque podría ser aceptable para escenarios a pequeña escala, no lo alentamos a escala debido a la complejidad y los problemas de compatibilidad que podrían surgir.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6616,19 +6621,15 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I120" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6649,7 +6650,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Use un área de trabajo de registros de monitor único para administrar plataformas de forma centralizada, excepto cuando el control de acceso basado en roles (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6664,13 +6665,21 @@
         </is>
       </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
-      <c r="I121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6691,7 +6700,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Exporte registros a Almacenamiento de Azure si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una directiva de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6706,21 +6715,13 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I122" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H122" s="16" t="n"/>
+      <c r="I122" s="16" t="n"/>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6741,7 +6742,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Exporte registros a Almacenamiento de Azure si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una directiva de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6770,7 +6771,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6791,7 +6792,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Supervise la deriva de configuración de la máquina virtual (VM) en el invitado mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de directivas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6808,19 +6809,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6841,7 +6842,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Automatización de Azure como un mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Supervise la deriva de configuración de la máquina virtual (VM) en el invitado mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de directivas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6858,19 +6859,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6891,7 +6892,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t xml:space="preserve">Use Update Management en Automatización de Azure como un mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6908,19 +6909,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6941,7 +6942,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6958,19 +6959,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6991,7 +6992,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barandillas adecuadas para aplicar quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7008,14 +7009,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7036,7 +7042,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Incluya eventos de mantenimiento de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barandillas adecuadas para aplicar quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7053,14 +7059,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7081,7 +7087,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acciones como parte de la plataforma Azure Service Health para garantizar que se puedan actuar alertas o problemas</t>
+          <t>Incluya eventos de mantenimiento de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7098,14 +7104,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7126,7 +7132,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Incluir alertas y grupos de acciones como parte de la plataforma Azure Service Health para garantizar que se puedan actuar alertas o problemas</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7143,14 +7149,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7171,7 +7177,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de las aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7188,14 +7194,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7216,7 +7222,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de las aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7233,14 +7239,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7261,7 +7267,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensiones de diagnóstico de Azure.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7278,14 +7284,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7306,7 +7312,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensiones de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7323,14 +7329,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7351,7 +7357,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Emplee escenarios de recuperación ante desastres de Azure Site Recovery para Azure-to-Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7368,14 +7374,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7396,7 +7402,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Emplee escenarios de recuperación ante desastres de Azure Site Recovery para Azure-to-Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7413,14 +7419,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7441,7 +7447,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use las capacidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Copia de seguridad de Azure y todas las nuevas funcionalidades que pueden simplificar en gran medida la administración de copias de seguridad</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7458,14 +7464,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7476,23 +7482,23 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Use las capacidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Copia de seguridad de Azure y todas las nuevas funcionalidades que pueden simplificar en gran medida la administración de copias de seguridad</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7503,14 +7509,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7531,13 +7537,13 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Almacenes de claves de Azure para diferentes aplicaciones y regiones a fin de evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7548,14 +7554,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7576,7 +7582,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga por software habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Use diferentes Almacenes de claves de Azure para diferentes aplicaciones y regiones a fin de evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7593,14 +7599,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7621,7 +7627,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga por software habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7645,7 +7651,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7666,7 +7672,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7690,7 +7696,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7711,7 +7717,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7735,7 +7741,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7756,7 +7762,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Habilite el extremo de servicio de firewall y red virtual o el punto de enlace privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7780,7 +7786,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7801,7 +7807,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central de la plataforma para auditar el uso de claves, certificados y secretos dentro de cada instancia del Almacén de claves.</t>
+          <t>Habilite el extremo de servicio de firewall y red virtual o el punto de enlace privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7818,14 +7824,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7846,7 +7852,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias y el acceso privilegiado del Almacén de claves y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central de la plataforma para auditar el uso de claves, certificados y secretos dentro de cada instancia del Almacén de claves.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7863,14 +7869,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7891,7 +7897,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, las claves administradas por Microsoft para la funcionalidad de cifrado principal y usar claves administradas por el cliente cuando sea necesario.</t>
+          <t>Delegue la creación de instancias y el acceso privilegiado del Almacén de claves y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7908,14 +7914,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7936,7 +7942,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación, por entorno y por región.</t>
+          <t>De forma predeterminada, las claves administradas por Microsoft para la funcionalidad de cifrado principal y usar claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7953,14 +7959,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7981,7 +7987,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Use un Almacén de claves de Azure por aplicación, por entorno y por región.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8005,7 +8011,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8021,18 +8027,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8043,14 +8049,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8071,13 +8077,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva de anexión para aplicar el uso.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8088,14 +8094,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8116,7 +8122,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y a las asignaciones de roles de Azure.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva de anexión para aplicar el uso.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8133,14 +8139,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8161,7 +8167,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y a las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8185,7 +8191,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8206,7 +8212,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de políticas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8230,7 +8236,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8251,13 +8257,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Usar Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
+          <t>Administre las asignaciones de políticas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8275,7 +8281,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8296,13 +8302,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Usar Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8320,7 +8326,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8341,7 +8347,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directiva integrado en un ámbito determinado para habilitar la gobernanza a nivel de aplicación.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8365,7 +8371,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8386,7 +8392,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
+          <t>Asigne el rol de colaborador de directiva integrado en un ámbito determinado para habilitar la gobernanza a nivel de aplicación.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8410,7 +8416,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8431,7 +8437,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8455,7 +8461,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8476,7 +8482,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Supervise la deriva de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8500,7 +8506,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8516,12 +8522,12 @@
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Supervise la deriva de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8538,14 +8544,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8566,7 +8572,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Almacenamiento de Azure para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8583,14 +8589,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8611,7 +8617,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Almacenamiento de Azure para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8628,14 +8634,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8656,7 +8662,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Supervise la deriva de parches del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8680,7 +8686,7 @@
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8701,7 +8707,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Supervise la deriva de parches del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8718,14 +8724,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8746,7 +8752,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitir su entrada en producción.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8763,14 +8769,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8791,7 +8797,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitir su entrada en producción.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8808,14 +8814,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8836,7 +8842,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de azure</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8853,14 +8859,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8881,7 +8887,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de azure</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8905,7 +8911,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8914,15 +8920,45 @@
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -10981,7 +11017,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F171" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -5884,12 +5884,12 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
@@ -2072,7 +2072,7 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2117,7 +2117,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -11016,7 +11016,13 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="3">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -7048,7 +7048,7 @@
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8499,7 +8499,7 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
@@ -8544,7 +8544,7 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -11016,7 +11016,19 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="7">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -1422,7 +1422,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -1795,17 +1795,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres a cuatro niveles, idealmente</t>
+          <t>Evite el uso de cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1822,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Aplicar o anexar etiquetas de recursos a través de Azure Policy</t>
+          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres a cuatro niveles, idealmente</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1872,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
+          <t>Aplicar o anexar etiquetas de recursos a través de Azure Policy</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1922,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
+          <t>Aplicar un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador wan virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
+          <t>Aplicar un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
+          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador wan virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2072,14 +2072,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2100,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización de RBAC de Azure en la configuración de jerarquía de grupos de administración</t>
+          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2117,14 +2122,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2145,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Aplique grupos de administración en el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
+          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización de RBAC de Azure en la configuración de jerarquía de grupos de administración</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2162,14 +2167,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2190,13 +2195,13 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, revise el acceso, revise el presupuesto, cumpla con las políticas y remedie cuando sea necesario.</t>
+          <t>Aplique grupos de administración en el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2214,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2235,13 +2240,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Enusre que todos los propietarios de suscripciones y el equipo central de TI son conscientes de las limitaciones de soporte de suscripción como parte de las sesiones de diseño de la carga de trabajo.</t>
+          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, revise el acceso, revise el presupuesto, cumpla con las políticas y remedie cuando sea necesario.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2252,14 +2257,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2280,13 +2285,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Aplique el uso de instancias reservadas para priorizar la capacidad reservada en las regiones requeridas. Luego, la carga de trabajo tendrá la capacidad requerida incluso cuando haya una gran demanda de ese recurso en una región específica.</t>
+          <t>Enusre que todos los propietarios de suscripciones y el equipo central de TI son conscientes de las limitaciones de soporte de suscripción como parte de las sesiones de diseño de la carga de trabajo.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2297,19 +2302,15 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I32" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2330,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un panel, un libro o un proceso manual para supervisar los niveles de capacidad utilizados</t>
+          <t>Aplique el uso de instancias reservadas para priorizar la capacidad reservada en las regiones requeridas. Luego, la carga de trabajo tendrá la capacidad requerida incluso cuando haya una gran demanda de ese recurso en una región específica.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2347,19 +2348,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2380,13 +2381,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
+          <t>Aplicar un panel, un libro o un proceso manual para supervisar los niveles de capacidad utilizados</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2397,19 +2398,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2430,13 +2431,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un proceso para la gestión de costes</t>
+          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2447,19 +2448,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2480,13 +2481,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server, establezca una suscripción de identidad dedicada en el grupo administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Aplicar un proceso para la gestión de costes</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2497,19 +2498,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
+          <t>Si AD en Windows Server, establezca una suscripción de identidad dedicada en el grupo administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2547,19 +2548,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2570,17 +2571,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos en las regiones de Azure ni en las ubicaciones locales</t>
+          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2597,19 +2598,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de utilizar las direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
+          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos en las regiones de Azure ni en las ubicaciones locales</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2659,7 +2660,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2680,7 +2681,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que el espacio de direcciones IP no se desperdicie, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Asegúrese de utilizar las direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2709,7 +2710,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya intervalo de direcciones IP públicas (bloque CIDR) para los VNET, especialmente si no son propiedad de su organización</t>
+          <t xml:space="preserve">Asegúrese de que el espacio de direcciones IP no se desperdicie, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2759,7 +2760,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2780,7 +2781,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Evite el uso de rangos de direcciones IP superpuestos para sitios de producción y recuperación ante desastres.</t>
+          <t>Asegúrese de que no haya intervalo de direcciones IP públicas (bloque CIDR) para los VNET, especialmente si no son propiedad de su organización</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2797,19 +2798,19 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Evite el uso de rangos de direcciones IP superpuestos para sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2847,7 +2848,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
@@ -2859,7 +2860,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2880,7 +2881,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Para entornos en los que se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado de Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2909,7 +2910,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2930,7 +2931,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
+          <t>Para entornos en los que se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado de Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,13 +2949,18 @@
       <c r="H45" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2975,7 +2981,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Habilite el registro automático para DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2992,19 +2998,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3020,12 +3022,12 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Habilite el registro automático para DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3042,19 +3044,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3075,7 +3077,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use un concentrador de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre sí en todas las regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3092,14 +3094,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3120,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
+          <t>Use un concentrador de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre sí en todas las regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3144,7 +3151,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3165,7 +3172,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Conectar concentradores WAN virtuales a centros de datos locales mediante ExpressRoute</t>
+          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3185,16 +3192,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I50" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+      <c r="I50" s="16" t="n"/>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3215,7 +3218,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador wan virtual más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>Conectar concentradores WAN virtuales a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="I51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3265,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
+          <t>Conecte sucursales y ubicaciones remotas al concentrador wan virtual más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3294,7 +3297,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Siga el principio 'el tráfico en Azure permanece en Azure' para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3333,13 +3336,18 @@
       <c r="H53" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3360,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall</t>
+          <t>Siga el principio 'el tráfico en Azure permanece en Azure' para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3380,16 +3388,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I54" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="I54" s="16" t="n"/>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3410,7 +3414,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor asociado para asegurarse de que no haya configuraciones en conflicto</t>
+          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3428,13 +3432,18 @@
       <c r="H55" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3455,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor asociado para asegurarse de que no haya configuraciones en conflicto</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3479,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3500,7 +3509,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3517,14 +3526,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3545,7 +3554,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología integral de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3562,14 +3571,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3585,12 +3594,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red tradicional de concentrador y radio para los siguientes escenarios: una arquitectura de red implementada dentro de una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida existente es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de los NVA centralizados y el enrutamiento granular.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología integral de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3607,19 +3616,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3640,7 +3644,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y los NVA de Azure Firewall o asociados, se encuentren en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Considere un diseño de red basado en la topología de red tradicional de concentrador y radio para los siguientes escenarios: una arquitectura de red implementada dentro de una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida existente es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de los NVA centralizados y el enrutamiento granular.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3657,14 +3661,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3685,7 +3694,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor asociado</t>
+          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y los NVA de Azure Firewall o asociados, se encuentren en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3702,14 +3711,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3730,7 +3739,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor asociado</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3747,14 +3756,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3775,7 +3784,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
+          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3792,7 +3801,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3800,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3821,7 +3830,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías de concentrador y radio en todas las regiones de Azure, use Global Virtual Network Peering para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3838,19 +3847,15 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="n"/>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,7 +3876,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando implemente una arquitectura de red de concentrador y radio en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en todas las regiones de Azure. </t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías de concentrador y radio en todas las regiones de Azure, use Global Virtual Network Peering para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3888,19 +3893,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,7 +3926,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado integral de las redes en Azure.</t>
+          <t xml:space="preserve">Cuando implemente una arquitectura de red de concentrador y radio en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en todas las regiones de Azure. </t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3938,19 +3943,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,7 +3976,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado integral de las redes en Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3988,15 +3993,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I67" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4012,12 +4021,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub y habló</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4034,19 +4043,15 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="n"/>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,7 +4072,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Cuando utilice varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4084,7 +4089,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
@@ -4096,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que está utilizando la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Cuando utilice varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4146,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,7 +4172,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Asegúrese de que está utilizando la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4184,7 +4189,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4196,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, utilice ExpressRoute Direct.</t>
+          <t>Implemente una puerta de enlace ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4234,7 +4239,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4246,7 +4251,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento desde el entorno local a Azure debe ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Para escenarios que requieren ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, utilice ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4284,7 +4289,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
@@ -4296,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (cuando estén disponibles).</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento desde el entorno local a Azure debe ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4346,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach para conectar oficinas grandes, sedes regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (cuando estén disponibles).</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4384,7 +4389,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I75" s="16" t="inlineStr">
@@ -4396,7 +4401,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, utilice diferentes circuitos ExpressRoute. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Use ExpressRoute Global Reach para conectar oficinas grandes, sedes regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4434,7 +4439,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I76" s="16" t="inlineStr">
@@ -4446,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, utilice diferentes circuitos ExpressRoute. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4484,7 +4489,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I77" s="16" t="inlineStr">
@@ -4496,7 +4501,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,7 +4522,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4534,7 +4539,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I78" s="16" t="inlineStr">
@@ -4546,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,7 +4572,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>No utilice explícitamente los circuitos expressRoute desde una única ubicación de emparejamiento. Hacerlo crea un único punto de falla y hace que la organización sea susceptible a interrupciones de ubicación de emparejamiento.</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4584,7 +4589,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
@@ -4596,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4612,12 +4617,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
+          <t>No utilice explícitamente los circuitos expressRoute desde una única ubicación de emparejamiento. Hacerlo crea un único punto de falla y hace que la organización sea susceptible a interrupciones de ubicación de emparejamiento.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4634,19 +4639,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,7 +4672,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han inyectado en una red virtual siguen realizando operaciones de plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no esté rota</t>
+          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,14 +4694,14 @@
       </c>
       <c r="I81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
+          <t>Los servicios PaaS de Azure que se han inyectado en una red virtual siguen realizando operaciones de plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no esté rota</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4734,19 +4739,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Acceda a los servicios paaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la internet pública.</t>
+          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,14 +4794,14 @@
       </c>
       <c r="I83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
+          <t>Acceda a los servicios paaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la internet pública.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,14 +4844,14 @@
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,7 +4872,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>No habilite los extremos de servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4896,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,7 +4922,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>No use puntos de conexión de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>No habilite los extremos de servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4946,7 +4951,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
+          <t>No use puntos de conexión de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4996,7 +5001,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5012,12 +5017,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Usar Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,14 +5044,14 @@
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar firewalls de Azure en centros de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está en disponibilidad general tanto para Virtual WAN como para redes virtuales regulares.</t>
+          <t>Usar Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5084,7 +5089,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
@@ -5096,7 +5101,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para gobernar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Firewall Manager con Virtual WAN para implementar y administrar firewalls de Azure en centros de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está en disponibilidad general tanto para Virtual WAN como para redes virtuales regulares.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5146,7 +5151,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Cree una directiva global de Azure Firewall para gobernar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5196,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,14 +5244,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,7 +5272,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use las directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5284,7 +5289,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5296,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use las directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5334,7 +5339,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5346,7 +5351,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,14 +5394,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use los planes de protección estándar de Protección DDoS de Azure para ayudar a proteger todos los puntos de conexión públicos hospedados en las redes virtuales.</t>
+          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5434,19 +5439,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5462,12 +5467,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones orientadas internamente (corp) como externas (en línea).</t>
+          <t>Use los planes de protección estándar de Protección DDoS de Azure para ayudar a proteger todos los puntos de conexión públicos hospedados en las redes virtuales.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5484,19 +5489,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,7 +5522,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Para una entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones orientadas internamente (corp) como externas (en línea).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5534,7 +5539,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5546,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,7 +5572,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use un NVA de socio si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
+          <t>Para una entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5584,19 +5589,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,7 +5622,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVAs de asociado que se usen para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+          <t>Use un NVA de socio si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5634,19 +5639,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,7 +5672,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Utilice un plan de protección estándar DDoS para todas las direcciones IP públicas en una zona de aterrizaje.</t>
+          <t>Implemente Azure Application Gateway v2 o NVAs de asociado que se usen para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,14 +5694,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
+          <t>Utilice un plan de protección estándar DDoS para todas las direcciones IP públicas en una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5746,7 +5751,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,7 +5772,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
+          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5784,7 +5789,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5796,7 +5801,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,7 +5822,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5834,7 +5839,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5846,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,13 +5872,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado el Proxy de aplicación de Azure AD como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5884,19 +5889,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5912,18 +5917,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegar la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado el Proxy de aplicación de Azure AD como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5934,19 +5939,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5962,12 +5967,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t xml:space="preserve">Delegar la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5989,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6012,12 +6017,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Utilice los NSG para ayudar a proteger el tráfico a través de las subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,19 +6039,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los NSG de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Utilice los NSG para ayudar a proteger el tráfico a través de las subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6089,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6101,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los NSG de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6134,7 +6139,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6146,7 +6151,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y aliméntelos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6194,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre zonas de aterrizaje.</t>
+          <t>Habilite los registros de flujo de NSG y aliméntelos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6244,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Para las topologías de WAN virtual, enrute el tráfico entre zonas de aterrizaje a través de Azure Firewall si la organización requiere capacidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,14 +6294,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6312,12 +6317,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Cuando utilice ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Para las topologías de WAN virtual, enrute el tráfico entre zonas de aterrizaje a través de Azure Firewall si la organización requiere capacidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6337,12 +6342,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Si el tráfico entre regiones de Azure debe cifrarse, use el emparejamiento de red virtual global para conectar redes virtuales entre regiones.</t>
+          <t>Cuando utilice ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,19 +6389,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6413,7 +6417,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
+          <t>Si el tráfico entre regiones de Azure debe cifrarse, use el emparejamiento de red virtual global para conectar redes virtuales entre regiones.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,7 +6434,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6442,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6458,12 +6462,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
+          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,19 +6484,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6513,7 +6517,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evalúe si la última versión de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
+          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6530,15 +6534,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6559,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Utilice soluciones de socios para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Evalúe si la última versión de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6576,14 +6584,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6604,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque podría ser aceptable para escenarios a pequeña escala, no lo alentamos a escala debido a la complejidad y los problemas de compatibilidad que podrían surgir.</t>
+          <t>Utilice soluciones de socios para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6621,7 +6629,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6629,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6640,17 +6648,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use un área de trabajo de registros de monitor único para administrar plataformas de forma centralizada, excepto cuando el control de acceso basado en roles (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque podría ser aceptable para escenarios a pequeña escala, no lo alentamos a escala debido a la complejidad y los problemas de compatibilidad que podrían surgir.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6667,19 +6675,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6700,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Use un área de trabajo de registros de monitor único para administrar plataformas de forma centralizada, excepto cuando el control de acceso basado en roles (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6715,13 +6719,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6742,7 +6754,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Exporte registros a Almacenamiento de Azure si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una directiva de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6757,21 +6769,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6792,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Exporte registros a Almacenamiento de Azure si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una directiva de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6821,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6842,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Supervise la deriva de configuración de la máquina virtual (VM) en el invitado mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de directivas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6859,19 +6863,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6892,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Automatización de Azure como un mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Supervise la deriva de configuración de la máquina virtual (VM) en el invitado mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de directivas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6909,19 +6913,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6942,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t xml:space="preserve">Use Update Management en Automatización de Azure como un mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6959,19 +6963,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6992,7 +6996,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7009,19 +7013,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7042,13 +7046,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barandillas adecuadas para aplicar quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7059,14 +7063,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7087,13 +7096,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Incluya eventos de mantenimiento de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barandillas adecuadas para aplicar quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7104,14 +7113,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7132,7 +7141,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acciones como parte de la plataforma Azure Service Health para garantizar que se puedan actuar alertas o problemas</t>
+          <t>Incluya eventos de mantenimiento de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7149,14 +7158,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7177,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Incluir alertas y grupos de acciones como parte de la plataforma Azure Service Health para garantizar que se puedan actuar alertas o problemas</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7194,14 +7203,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7222,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de las aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7239,14 +7248,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7267,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de las aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7284,14 +7293,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7312,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensiones de diagnóstico de Azure.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7329,14 +7338,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7357,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensiones de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7374,14 +7383,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7402,7 +7411,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Emplee escenarios de recuperación ante desastres de Azure Site Recovery para Azure-to-Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7419,14 +7428,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7447,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Emplee escenarios de recuperación ante desastres de Azure Site Recovery para Azure-to-Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7464,14 +7473,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7492,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use las capacidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Copia de seguridad de Azure y todas las nuevas funcionalidades que pueden simplificar en gran medida la administración de copias de seguridad</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7509,14 +7518,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7527,23 +7536,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Use las capacidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Copia de seguridad de Azure y todas las nuevas funcionalidades que pueden simplificar en gran medida la administración de copias de seguridad</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7554,14 +7563,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7572,17 +7581,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Almacenes de claves de Azure para diferentes aplicaciones y regiones a fin de evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7599,14 +7608,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7627,13 +7636,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga por software habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7644,14 +7653,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7672,7 +7681,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Use diferentes Almacenes de claves de Azure para diferentes aplicaciones y regiones a fin de evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7689,14 +7698,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7717,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga por software habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7741,7 +7750,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7762,7 +7771,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7786,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7807,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Habilite el extremo de servicio de firewall y red virtual o el punto de enlace privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7831,7 +7840,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7852,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central de la plataforma para auditar el uso de claves, certificados y secretos dentro de cada instancia del Almacén de claves.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7869,14 +7878,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7897,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias y el acceso privilegiado del Almacén de claves y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Habilite el extremo de servicio de firewall y red virtual o el punto de enlace privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7921,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7942,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, las claves administradas por Microsoft para la funcionalidad de cifrado principal y usar claves administradas por el cliente cuando sea necesario.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central de la plataforma para auditar el uso de claves, certificados y secretos dentro de cada instancia del Almacén de claves.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7959,14 +7968,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7987,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación, por entorno y por región.</t>
+          <t>Delegue la creación de instancias y el acceso privilegiado del Almacén de claves y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8011,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8032,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>De forma predeterminada, las claves administradas por Microsoft para la funcionalidad de cifrado principal y usar claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8049,14 +8058,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8072,18 +8081,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Use un Almacén de claves de Azure por aplicación, por entorno y por región.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8094,14 +8103,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8117,12 +8126,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva de anexión para aplicar el uso.</t>
+          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8139,14 +8148,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8167,13 +8176,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y a las asignaciones de roles de Azure.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8191,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8212,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva de anexión para aplicar el uso.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8229,14 +8238,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8257,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de políticas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y a las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8281,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8302,13 +8311,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Usar Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8326,7 +8335,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8347,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Administre las asignaciones de políticas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8371,7 +8380,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8392,13 +8401,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directiva integrado en un ámbito determinado para habilitar la gobernanza a nivel de aplicación.</t>
+          <t>Usar Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8416,7 +8425,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8437,7 +8446,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8461,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8482,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Asigne el rol de colaborador de directiva integrado en un ámbito determinado para habilitar la gobernanza a nivel de aplicación.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8499,14 +8508,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8527,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Supervise la deriva de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8544,14 +8553,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8567,12 +8576,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8589,14 +8598,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8612,12 +8621,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Almacenamiento de Azure para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Supervise la deriva de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8634,14 +8643,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8662,7 +8671,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8679,14 +8688,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8707,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Supervise la deriva de parches del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Almacenamiento de Azure para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8724,14 +8733,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8752,7 +8761,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8769,14 +8778,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8797,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitir su entrada en producción.</t>
+          <t>Supervise la deriva de parches del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8814,14 +8823,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8842,7 +8851,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8859,14 +8868,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8887,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de azure</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitir su entrada en producción.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8911,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8932,7 +8941,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8949,14 +8958,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8965,30 +8974,90 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se implementarán los nuevos servicios de azure</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
@@ -11035,7 +11104,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
+          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Enusre que todos los propietarios de suscripciones y el equipo central de TI son conscientes de las limitaciones de soporte de suscripción como parte de las sesiones de diseño de la carga de trabajo.</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo principal de TI conozcan las limitaciones de soporte de suscripciones como parte de las sesiones de diseño de cargas de trabajo.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J40" s="23" t="n"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Aplique el uso de instancias reservadas para priorizar la capacidad reservada en las regiones requeridas. Luego, la carga de trabajo tendrá la capacidad requerida incluso cuando haya una gran demanda de ese recurso en una región específica.</t>
+          <t>Utilice instancias reservadas cuando sea apropiado para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Aplique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -9064,330 +9064,990 @@
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use TLS integral con Azure Front Door. Use TLS para las conexiones de sus clientes a Front Door y desde Front Door a su origen.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos a una solicitud HTTPS automáticamente.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a renovaciones de certificados.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "Más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Habilite el WAF de Puerta principal de Azure. Proteja su aplicación de una serie de ataques.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo haya un origen en un grupo de origen de Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear puntos de conexión de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use los sondeos de mantenimiento head con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo. Reducir las detecciones de falsos positivos.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use el modo de prevención con azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Habilite los conjuntos de reglas predeterminadas de Waf de Puerta principal de Azure. Los conjuntos de reglas predeterminados detectan y bloquean los ataques comunes.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Habilite las reglas de administración de bots WAF de Azure Front Door. Las reglas de bot detectan bots buenos y malos.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use las versiones más recientes del conjunto de reglas waf de Azure Front Door. Las actualizaciones del conjunto de reglas se actualizan regularmente para tener en cuenta el panorama actual de amenazas.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Agregue la limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionalmente grandes cantidades de tráfico en un corto período de tiempo.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad de WAF de Azure Front Door. Los umbrales de límite de velocidad altos evitan bloquear el tráfico legítimo, al tiempo que brindan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Filtre geográficamente el tráfico mediante el WAF de Puerta principal de Azure. Permita el tráfico solo de las regiones esperadas y bloquee el tráfico de otras regiones.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Puerta principal de Azure. Evite bloquear accidentalmente las solicitudes legítimas cuando las direcciones IP no se pueden geoparejar.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Gestión y Seguimiento</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de Azure Front Door WAF. Revise regularmente los registros para verificar si hay ataques y detecciones de falsos positivos.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Gestión y Seguimiento</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Envíe registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de Front Door en su entorno general de Azure.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -11104,7 +11764,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisión de la zona de aterrizaje de Azure</t>
+          <t>Revisión de Azure Landing Zone</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Implemente para el acceso de emergencia o las cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
+          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>984A859C-773E-47D2-9162-3A765A917E1F</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos a entornos de Azure</t>
+          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Aplique la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
+          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos desplegados dentro de la zona de aterrizaje en función de los requisitos de rol y seguridad</t>
+          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje en función de los requisitos de rol y seguridad</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Aplique Azure AD Privileged Identity Management (PIM) para establecer el acceso permanente cero y el privilegio mínimo</t>
+          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evitar el uso de la cuenta Microsoft</t>
+          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure-AD si ya existe un sistema de administración de grupos.</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>F5664B5E-984A-4859-A773-E7D261623A76</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlas</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>5A917E1F-348E-4F25-9C27-D42E8BBBAC757</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Si Los Servicios de dominio de Azure Active Directory (AADDS) están en uso, implemente AADDS dentro de la región principal porque este servicio solo se puede proyectar en una suscripción</t>
+          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Si AD en el servidor Windows está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
+          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar el proxy de aplicación de Azure AD como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o locales).</t>
+          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evite el uso de cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
+          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>35037E68-9349-4C15-B371-228514F4CDFF</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres a cuatro niveles, idealmente</t>
+          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Aplicar o anexar etiquetas de recursos a través de Azure Policy</t>
+          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
+          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
+          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador wan virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
+          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización de RBAC de Azure en la configuración de jerarquía de grupos de administración</t>
+          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Aplique grupos de administración en el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
+          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, revise el acceso, revise el presupuesto, cumpla con las políticas y remedie cuando sea necesario.</t>
+          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo principal de TI conozcan las limitaciones de soporte de suscripciones como parte de las sesiones de diseño de cargas de trabajo.</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de soporte de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Utilice instancias reservadas cuando sea apropiado para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Aplique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
+          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un panel, un libro o un proceso manual para supervisar los niveles de capacidad utilizados</t>
+          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2410,7 +2410,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>C773E7D2-6162-43A7-95A9-17E1F348EF25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un proceso para la gestión de costes</t>
+          <t>Aplicar un proceso para la gestión de costos</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2510,7 +2510,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>AE28C84C-33B6-4B78-88B9-FE5C41049D40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server, establezca una suscripción de identidad dedicada en el grupo administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos en las regiones de Azure ni en las ubicaciones locales</t>
+          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de utilizar las direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
+          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que el espacio de direcciones IP no se desperdicie, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya intervalo de direcciones IP públicas (bloque CIDR) para los VNET, especialmente si no son propiedad de su organización</t>
+          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2810,7 +2810,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>E984A859-C773-4E7D-8616-23A765A917E1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Evite el uso de rangos de direcciones IP superpuestos para sitios de producción y recuperación ante desastres.</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2910,7 +2910,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>153E8908-AE28-4C84-A33B-6B7808B9FE5C</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Para entornos en los que se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado de Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
+          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2960,7 +2960,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>41049D40-3A92-43C3-974D-00018AC6A9E0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben utilizar su solución DNS preferida.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Habilite el registro automático para DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3056,7 +3056,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>614658D3-558F-4D77-849B-821112DF27EE</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use un concentrador de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre sí en todas las regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Conectar concentradores WAN virtuales a centros de datos locales mediante ExpressRoute</t>
+          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador wan virtual más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Siga el principio 'el tráfico en Azure permanece en Azure' para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico de Internet saliente, implemente Azure Firewall</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor asociado para asegurarse de que no haya configuraciones en conflicto</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3488,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>12DF27EE-412E-47F9-A3F6-304722DD69C5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3578,7 +3578,7 @@
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>6667313B-4F56-464B-9E98-4A859C773E7D</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología integral de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3639,12 +3639,12 @@
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red tradicional de concentrador y radio para los siguientes escenarios: una arquitectura de red implementada dentro de una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida existente es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de los NVA centralizados y el enrutamiento granular.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3689,12 +3689,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y los NVA de Azure Firewall o asociados, se encuentren en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor asociado</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
@@ -3855,7 +3855,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>CE463DBB-BC8A-4C2A-AEBC-92A43DA1DAE2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,12 +3871,12 @@
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías de concentrador y radio en todas las regiones de Azure, use Global Virtual Network Peering para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3905,7 +3905,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>CC881471-607C-41CC-A0E6-14658DD558F9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando implemente una arquitectura de red de concentrador y radio en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en todas las regiones de Azure. </t>
+          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado integral de las redes en Azure.</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Hub y habló</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Cuando utilice varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas.</t>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que está utilizando la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, utilice ExpressRoute Direct.</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento desde el entorno local a Azure debe ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4351,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>C2299C4D-7B57-4D0C-9555-62F2B3E4563A</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (cuando estén disponibles).</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach para conectar oficinas grandes, sedes regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
+          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4451,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>FE237DE1-43B1-46C3-8D7A-A9B64704489A</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, utilice diferentes circuitos ExpressRoute. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>No utilice explícitamente los circuitos expressRoute desde una única ubicación de emparejamiento. Hacerlo crea un único punto de falla y hace que la organización sea susceptible a interrupciones de ubicación de emparejamiento.</t>
+          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4651,7 +4651,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>E0D5973C-D4CD-421B-8881-37F5E6C4CFD3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4701,7 +4701,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>E504547C-2447-4EC6-9138-A7200F1CE16E</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han inyectado en una red virtual siguen realizando operaciones de plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no esté rota</t>
+          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4751,7 +4751,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>D301D6E8-72E5-42E3-911C-C58B5A4B1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, cuando esté disponible, para los servicios PaaS compartidos de Azure.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4801,7 +4801,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>E43A58A9-C229-49C4-B7B5-7D0C655562F2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Acceda a los servicios paaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la internet pública.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>No habilite los extremos de servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>No use puntos de conexión de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Usar Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar firewalls de Azure en centros de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está en disponibilidad general tanto para Virtual WAN como para redes virtuales regulares.</t>
+          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está disponible de forma general tanto para Virtual WAN como para redes virtuales normales.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para gobernar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles dentro de Firewall Manager si la organización desea utilizar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5301,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>D15F512A-6549-48F6-BFE2-37DE143B16C3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use las directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5401,7 +5401,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>3B22A5A6-7E7A-48ED-9B30-E38C3F29812B</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use los planes de protección estándar de Protección DDoS de Azure para ayudar a proteger todos los puntos de conexión públicos hospedados en las redes virtuales.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones orientadas internamente (corp) como externas (en línea).</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Para una entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, utilice Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use un NVA de socio si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
+          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5651,7 +5651,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>D7B57D0C-6555-462F-8B3E-4563A4D87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVAs de asociado que se usen para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Utilice un plan de protección estándar DDoS para todas las direcciones IP públicas en una zona de aterrizaje.</t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5901,7 +5901,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>CD4CD21B-0881-437F-9E6C-4CFD3E504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado el Proxy de aplicación de Azure AD como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegar la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -6001,7 +6001,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>C2447EC6-6138-4A72-80F1-CE16ED301D6E</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6051,7 +6051,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>01CA7CF1-5754-442D-BABB-8BA6772E5C30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Utilice los NSG para ayudar a proteger el tráfico a través de las subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los NSG de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6201,7 +6201,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>A4D87397-48B6-462D-9D15-F512A65498F6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y aliméntelos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6251,7 +6251,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>DFE237DE-143B-416C-91D7-AA9B64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre zonas de aterrizaje.</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6301,7 +6301,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>A8042D88-E79D-417B-93B2-2A5A67E7A8ED</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Para las topologías de WAN virtual, enrute el tráfico entre zonas de aterrizaje a través de Azure Firewall si la organización requiere capacidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Cuando utilice ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6396,7 +6396,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>DE0D5973-CD4C-4D21-A088-137F5E6C4CFD</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec a través del emparejamiento privado de ExpressRoute. </t>
+          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6496,7 +6496,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>ED301D6E-872E-452E-9611-CC58B5A4B151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Evalúe si la última versión de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
+          <t>Evalúe si la versión más reciente de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Utilice soluciones de socios para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6637,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>A65498F6-DFE2-437D-B143-B16C31D7AA9B</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque podría ser aceptable para escenarios a pequeña escala, no lo alentamos a escala debido a la complejidad y los problemas de compatibilidad que podrían surgir.</t>
+          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque puede ser aceptable para escenarios a pequeña escala, no lo recomendamos a escala debido a la complejidad y los problemas de compatibilidad que pueden surgir.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6694,7 +6694,7 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use un área de trabajo de registros de monitor único para administrar plataformas de forma centralizada, excepto cuando el control de acceso basado en roles (Azure RBAC), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6744,7 +6744,7 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
@@ -6775,7 +6775,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>E179B599-DE0D-4597-9CD4-CD21B088137F</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6786,7 +6786,7 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Exporte registros a Almacenamiento de Azure si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una directiva de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6836,7 +6836,7 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
@@ -6886,7 +6886,7 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Supervise la deriva de configuración de la máquina virtual (VM) en el invitado mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de directivas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6936,7 +6936,7 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Automatización de Azure como un mecanismo de aplicación de revisiones a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6986,7 +6986,7 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Utilice Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7036,7 +7036,7 @@
     <row r="129" ht="16.5" customHeight="1" s="13">
       <c r="A129" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B129" s="22" t="inlineStr">
@@ -7086,7 +7086,7 @@
     <row r="130" ht="16.5" customHeight="1" s="13">
       <c r="A130" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B130" s="22" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barandillas adecuadas para aplicar quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7131,7 +7131,7 @@
     <row r="131" ht="16.5" customHeight="1" s="13">
       <c r="A131" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B131" s="22" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Incluya eventos de mantenimiento de servicios y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7176,7 +7176,7 @@
     <row r="132" ht="16.5" customHeight="1" s="13">
       <c r="A132" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B132" s="22" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acciones como parte de la plataforma Azure Service Health para garantizar que se puedan actuar alertas o problemas</t>
+          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7210,7 +7210,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>D5F345BF-97AB-41A7-819C-6104BAA7D48C</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7221,7 +7221,7 @@
     <row r="133" ht="16.5" customHeight="1" s="13">
       <c r="A133" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B133" s="22" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanecen en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7266,7 +7266,7 @@
     <row r="134" ht="16.5" customHeight="1" s="13">
       <c r="A134" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B134" s="22" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de las aplicaciones IaaS y PaaS y controlar el acceso a los registros con Azure RBAC.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7300,7 +7300,7 @@
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>9945BDA4-3334-4F24-A116-34182BA52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7311,7 +7311,7 @@
     <row r="135" ht="16.5" customHeight="1" s="13">
       <c r="A135" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B135" s="22" t="inlineStr">
@@ -7356,7 +7356,7 @@
     <row r="136" ht="16.5" customHeight="1" s="13">
       <c r="A136" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B136" s="22" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensiones de diagnóstico de Azure.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7401,7 +7401,7 @@
     <row r="137" ht="16.5" customHeight="1" s="13">
       <c r="A137" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B137" s="22" t="inlineStr">
@@ -7446,7 +7446,7 @@
     <row r="138" ht="16.5" customHeight="1" s="13">
       <c r="A138" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B138" s="22" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Emplee escenarios de recuperación ante desastres de Azure Site Recovery para Azure-to-Azure Virtual Machines. Esto le permite replicar cargas de trabajo en todas las regiones.</t>
+          <t>Emplee Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7480,7 +7480,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>2476E49F-541A-4CDC-B979-377BCDB3751A</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7491,7 +7491,7 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
@@ -7536,7 +7536,7 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use las capacidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Copia de seguridad de Azure y todas las nuevas funcionalidades que pueden simplificar en gran medida la administración de copias de seguridad</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7570,7 +7570,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>F625CA44-E569-45F2-823A-CE8CB12308CA</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7581,7 +7581,7 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y de que se aplican las configuraciones adecuadas de recopilación de datos y alertas</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7660,7 +7660,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>5017F154-E3AB-4369-9829-E7E316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Almacenes de claves de Azure para diferentes aplicaciones y regiones a fin de evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7705,7 +7705,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>A0477A20-9945-4BDA-9333-4F2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga por software habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7795,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>DC055BCF-619E-48A1-9F98-879525D62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7885,7 +7885,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>913156A1-2476-4E49-B541-ACDCE979377B</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Habilite el extremo de servicio de firewall y red virtual o el punto de enlace privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central de la plataforma para auditar el uso de claves, certificados y secretos dentro de cada instancia del Almacén de claves.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7975,7 +7975,7 @@
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>17D6326A-F625-4CA4-9E56-95F2223ACE8C</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias y el acceso privilegiado del Almacén de claves y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8020,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>B12308CA-5017-4F15-9E3A-B3693829E7E3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, las claves administradas por Microsoft para la funcionalidad de cifrado principal y usar claves administradas por el cliente cuando sea necesario.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación, por entorno y por región.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que esto no sea compatible con todos los servicios considerados. Implemente la mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija los pares de regiones y las regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva de anexión para aplicar el uso.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,7 +8245,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>E979377B-CDB3-4751-AB2A-B13ADA6E55D7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y a las asignaciones de roles de Azure.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>D8A2ADB1-17D6-4326-AF62-5CA44E5695F2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8335,7 +8335,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>223ACE8C-B123-408C-A501-7F154E3AB369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de políticas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8380,7 +8380,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>3829E7E3-1618-4368-9A04-77A209945BDA</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Usar Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
+          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8425,7 +8425,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>43334F24-9116-4341-A2BA-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directiva integrado en un ámbito determinado para habilitar la gobernanza a nivel de aplicación.</t>
+          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de Azure Policy realizadas en el ámbito del grupo de administración raíz para evitar la administración a través de exclusiones en ámbitos heredados.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8560,7 +8560,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>19048384-5C98-46CB-8913-156A12476E49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Supervise la deriva de la configuración de seguridad de la máquina virtual a través de Azure Policy.</t>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8650,7 +8650,7 @@
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>DA6E55D7-D8A2-4ADB-817D-6326AF625CA4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Almacenamiento de Azure para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8785,7 +8785,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>09945BDA-4333-44F2-9911-634182BA5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Supervise la deriva de parches del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitir su entrada en producción.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>01365D38-E43F-49CC-AD86-8266ABCA264F</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8986,7 +8986,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de azure</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9055,7 +9055,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>AE514B93-3D45-485E-8112-9BD7BA012F7B</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use TLS integral con Azure Front Door. Use TLS para las conexiones de sus clientes a Front Door y desde Front Door a su origen.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos a una solicitud HTTPS automáticamente.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9190,7 +9190,7 @@
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>10AA45AF-166F-44C4-9F36-B6D592DAC2CA</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a renovaciones de certificados.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,7 +9235,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>AF95C92D-D723-4F4A-98D7-8722324EFD4D</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "Más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Habilite el WAF de Puerta principal de Azure. Proteja su aplicación de una serie de ataques.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo haya un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear puntos de conexión de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,7 +9460,7 @@
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5567048E-E5D7-4206-9C55-B5ED45D2CC0C</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use los sondeos de mantenimiento head con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,7 +9505,7 @@
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>A13F72F3-8F5C-4864-95E5-75BF37FBbeb1</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo. Reducir las detecciones de falsos positivos.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Waf de Puerta principal de Azure. Los conjuntos de reglas predeterminados detectan y bloquean los ataques comunes.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots WAF de Azure Front Door. Las reglas de bot detectan bots buenos y malos.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas waf de Azure Front Door. Las actualizaciones del conjunto de reglas se actualizan regularmente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Agregue la limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionalmente grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9820,7 +9820,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>B9620385-1CDE-418F-914B-A84A06982FFC</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad de WAF de Azure Front Door. Los umbrales de límite de velocidad altos evitan bloquear el tráfico legítimo, al tiempo que brindan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante el WAF de Puerta principal de Azure. Permita el tráfico solo de las regiones esperadas y bloquee el tráfico de otras regiones.</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Puerta principal de Azure. Evite bloquear accidentalmente las solicitudes legítimas cuando las direcciones IP no se pueden geoparejar.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9966,7 +9966,7 @@
     <row r="194" ht="16.5" customHeight="1" s="13">
       <c r="A194" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B194" s="22" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de Azure Front Door WAF. Revise regularmente los registros para verificar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10011,7 +10011,7 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Envíe registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de Front Door en su entorno general de Azure.</t>
+          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,12 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
@@ -11875,7 +11881,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Esta comprobación aún no se ha analizado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11949,7 +11955,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11971,7 +11977,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Emplee Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de soporte de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisión de Azure Landing Zone</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984A859C-773E-47D2-9162-3A765A917E1F</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3rd-45e8-a68e-1d76667313b4</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>F5664B5E-984A-4859-A773-E7D261623A76</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5A917E1F-348E-4F25-9C27-D42E8BBBAC757</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>35037E68-9349-4C15-B371-228514F4CDFF</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -2410,7 +2410,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>C773E7D2-6162-43A7-95A9-17E1F348EF25</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2510,7 +2510,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>AE28C84C-33B6-4B78-88B9-FE5C41049D40</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2810,7 +2810,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>E984A859-C773-4E7D-8616-23A765A917E1</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2910,7 +2910,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>153E8908-AE28-4C84-A33B-6B7808B9FE5C</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2960,7 +2960,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049D40-3A92-43C3-974D-00018AC6A9E0</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -3056,7 +3056,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658D3-558F-4D77-849B-821112DF27EE</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3488,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12DF27EE-412E-47F9-A3F6-304722DD69C5</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3578,7 +3578,7 @@
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313B-4F56-464B-9E98-4A859C773E7D</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3855,7 +3855,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>CE463DBB-BC8A-4C2A-AEBC-92A43DA1DAE2</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3905,7 +3905,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>CC881471-607C-41CC-A0E6-14658DD558F9</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -4351,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>C2299C4D-7B57-4D0C-9555-62F2B3E4563A</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4451,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>FE237DE1-43B1-46C3-8D7A-A9B64704489A</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4651,7 +4651,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>E0D5973C-D4CD-421B-8881-37F5E6C4CFD3</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4701,7 +4701,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>E504547C-2447-4EC6-9138-A7200F1CE16E</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4751,7 +4751,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>D301D6E8-72E5-42E3-911C-C58B5A4B1511</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4801,7 +4801,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>E43A58A9-C229-49C4-B7B5-7D0C655562F2</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -5301,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>D15F512A-6549-48F6-BFE2-37DE143B16C3</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5401,7 +5401,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3B22A5A6-7E7A-48ED-9B30-E38C3F29812B</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5651,7 +5651,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>D7B57D0C-6555-462F-8B3E-4563A4D87397</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5901,7 +5901,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>CD4CD21B-0881-437F-9E6C-4CFD3E504547</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -6001,7 +6001,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>C2447EC6-6138-4A72-80F1-CE16ED301D6E</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6051,7 +6051,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01CA7CF1-5754-442D-BABB-8BA6772E5C30</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6201,7 +6201,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>A4D87397-48B6-462D-9D15-F512A65498F6</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6251,7 +6251,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>DFE237DE-143B-416C-91D7-AA9B64704489</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6301,7 +6301,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>A8042D88-E79D-417B-93B2-2A5A67E7A8ED</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6396,7 +6396,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>DE0D5973-CD4C-4D21-A088-137F5E6C4CFD</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6496,7 +6496,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ED301D6E-872E-452E-9611-CC58B5A4B151</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6637,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>A65498F6-DFE2-437D-B143-B16C31D7AA9B</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6775,7 +6775,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>E179B599-DE0D-4597-9CD4-CD21B088137F</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -7210,7 +7210,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>D5F345BF-97AB-41A7-819C-6104BAA7D48C</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7300,7 +7300,7 @@
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945BDA4-3334-4F24-A116-34182BA52752</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7480,7 +7480,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476E49F-541A-4CDC-B979-377BCDB3751A</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7570,7 +7570,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>F625CA44-E569-45F2-823A-CE8CB12308CA</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7660,7 +7660,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017F154-E3AB-4369-9829-E7E316183687</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7705,7 +7705,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>A0477A20-9945-4BDA-9333-4F2491163418</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7795,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>DC055BCF-619E-48A1-9F98-879525D62688</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7885,7 +7885,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156A1-2476-4E49-B541-ACDCE979377B</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7975,7 +7975,7 @@
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17D6326A-F625-4CA4-9E56-95F2223ACE8C</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8020,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>B12308CA-5017-4F15-9E3A-B3693829E7E3</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8245,7 +8245,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>E979377B-CDB3-4751-AB2A-B13ADA6E55D7</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8290,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>D8A2ADB1-17D6-4326-AF62-5CA44E5695F2</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8335,7 +8335,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>223ACE8C-B123-408C-A501-7F154E3AB369</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8380,7 +8380,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3829E7E3-1618-4368-9A04-77A209945BDA</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8425,7 +8425,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>43334F24-9116-4341-A2BA-527526944008</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8560,7 +8560,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5C98-46CB-8913-156A12476E49</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8650,7 +8650,7 @@
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>DA6E55D7-D8A2-4ADB-817D-6326AF625CA4</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8785,7 +8785,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945BDA-4333-44F2-9911-634182BA5275</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365D38-E43F-49CC-AD86-8266ABCA264F</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9055,7 +9055,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>AE514B93-3D45-485E-8112-9BD7BA012F7B</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9190,7 +9190,7 @@
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>10AA45AF-166F-44C4-9F36-B6D592DAC2CA</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9235,7 +9235,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>AF95C92D-D723-4F4A-98D7-8722324EFD4D</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9460,7 +9460,7 @@
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048E-E5D7-4206-9C55-B5ED45D2CC0C</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9505,7 +9505,7 @@
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>A13F72F3-8F5C-4864-95E5-75BF37FBbeb1</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9820,7 +9820,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>B9620385-1CDE-418F-914B-A84A06982FFC</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
@@ -12053,7 +12065,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Implementación de aplicaciones</t>
+          <t>Application Deployment</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje en función de los requisitos de rol y seguridad</t>
+          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -2621,23 +2621,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2648,19 +2648,15 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="n"/>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2671,17 +2667,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
+          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2698,19 +2694,15 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I40" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="n"/>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2721,17 +2713,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2748,19 +2740,19 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2771,17 +2763,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2796,21 +2788,13 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="H42" s="16" t="n"/>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2821,17 +2805,17 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2848,19 +2832,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2871,17 +2855,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2898,19 +2882,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2921,17 +2905,17 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
+          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,19 +2932,19 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2971,17 +2955,17 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2998,15 +2982,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3017,17 +3005,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3044,19 +3032,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3067,17 +3055,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3094,19 +3082,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3117,23 +3105,23 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3144,14 +3132,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3162,17 +3150,17 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
+          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3189,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3197,7 +3185,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3208,17 +3196,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
+          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3235,19 +3223,15 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="n"/>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3258,17 +3242,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3285,19 +3269,15 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="n"/>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3308,17 +3288,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3335,19 +3315,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3358,17 +3333,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3385,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3393,7 +3368,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3404,17 +3379,17 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3431,19 +3406,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3454,17 +3424,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3481,14 +3451,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3499,17 +3469,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3526,14 +3496,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3544,17 +3514,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3571,14 +3541,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3589,17 +3559,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3616,14 +3586,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3634,17 +3604,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3661,19 +3631,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3689,12 +3654,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3711,14 +3676,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3734,12 +3704,12 @@
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, utilice Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3756,14 +3726,19 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3779,12 +3754,12 @@
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
+          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3801,15 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3825,12 +3804,12 @@
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3847,15 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,12 +3854,12 @@
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3893,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,12 +3904,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
+          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3943,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,12 +3954,12 @@
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3993,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4021,12 +4004,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4043,15 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,18 +4054,18 @@
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4089,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,12 +4104,12 @@
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4139,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4189,19 +4176,15 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="n"/>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,12 +4200,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Si el tráfico entre regiones de Azure debe cifrarse, use el emparejamiento de red virtual global para conectar redes virtuales entre regiones.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4239,19 +4222,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,12 +4250,12 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4289,19 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,18 +4300,18 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4339,19 +4322,15 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I74" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="n"/>
       <c r="J74" s="23" t="n"/>
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,12 +4346,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4389,19 +4368,15 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="n"/>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,18 +4392,18 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4439,19 +4414,15 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I76" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="n"/>
       <c r="J76" s="23" t="n"/>
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,12 +4438,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4489,19 +4460,15 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
-        </is>
-      </c>
-      <c r="I77" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
+      <c r="I77" s="16" t="n"/>
       <c r="J77" s="23" t="n"/>
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4539,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,12 +4530,12 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4589,19 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4617,12 +4580,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
+          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4639,19 +4602,15 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="n"/>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,12 +4626,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,19 +4648,15 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I81" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I81" s="16" t="n"/>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,12 +4672,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
+          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4739,19 +4694,15 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,12 +4718,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,12 +4764,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,12 +4814,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
+          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4889,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,12 +4864,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4939,19 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4989,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5017,12 +4960,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,19 +4982,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,12 +5010,12 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5089,19 +5032,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,12 +5060,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está disponible de forma general tanto para Virtual WAN como para redes virtuales normales.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5139,19 +5082,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,12 +5110,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5189,19 +5132,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,12 +5160,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,19 +5182,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,12 +5210,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5289,19 +5232,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,12 +5260,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5339,19 +5282,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,12 +5310,12 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,19 +5332,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,12 +5360,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5439,19 +5382,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5467,12 +5410,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5489,19 +5432,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,12 +5460,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5539,19 +5482,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, utilice Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
+          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5589,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,12 +5560,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
+          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5639,7 +5582,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5651,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,12 +5610,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,19 +5632,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,12 +5660,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5739,19 +5682,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,12 +5710,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
+          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5789,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,12 +5760,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5839,19 +5782,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,12 +5810,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5889,19 +5832,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5917,18 +5860,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5939,19 +5882,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5967,12 +5910,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5989,19 +5932,15 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6039,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,12 +6006,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6089,19 +6028,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,12 +6056,12 @@
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Evalúe si la versión más reciente de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6139,19 +6078,15 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,12 +6102,12 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,19 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque puede ser aceptable para escenarios a pequeña escala, no lo recomendamos a escala debido a la complejidad y los problemas de compatibilidad que pueden surgir.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,19 +6215,19 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6317,12 +6243,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está disponible de forma general tanto para Virtual WAN como para redes virtuales normales.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6339,7 +6265,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
@@ -6351,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6367,12 +6293,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6389,14 +6315,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6412,12 +6343,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Si el tráfico entre regiones de Azure debe cifrarse, use el emparejamiento de red virtual global para conectar redes virtuales entre regiones.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6439,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6462,12 +6393,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6484,19 +6415,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6512,12 +6443,12 @@
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6534,19 +6465,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6562,12 +6493,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Evalúe si la versión más reciente de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6584,14 +6515,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6607,12 +6543,12 @@
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6629,15 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I120" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6653,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque puede ser aceptable para escenarios a pequeña escala, no lo recomendamos a escala debido a la complejidad y los problemas de compatibilidad que pueden surgir.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6675,15 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6694,17 +6638,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6721,19 +6665,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6744,17 +6688,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6769,13 +6713,21 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="n"/>
-      <c r="I123" s="16" t="n"/>
+      <c r="H123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6786,17 +6738,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6813,19 +6765,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6836,17 +6788,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6863,19 +6815,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6886,17 +6838,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6913,19 +6865,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6936,17 +6888,17 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6963,19 +6915,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6986,17 +6938,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7013,19 +6965,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7036,17 +6988,17 @@
     <row r="129" ht="16.5" customHeight="1" s="13">
       <c r="A129" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7063,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7086,23 +7038,23 @@
     <row r="130" ht="16.5" customHeight="1" s="13">
       <c r="A130" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7113,14 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7131,17 +7088,17 @@
     <row r="131" ht="16.5" customHeight="1" s="13">
       <c r="A131" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7158,14 +7115,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7176,17 +7138,17 @@
     <row r="132" ht="16.5" customHeight="1" s="13">
       <c r="A132" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7203,14 +7165,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7221,17 +7188,17 @@
     <row r="133" ht="16.5" customHeight="1" s="13">
       <c r="A133" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7248,14 +7215,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7266,17 +7238,17 @@
     <row r="134" ht="16.5" customHeight="1" s="13">
       <c r="A134" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7293,14 +7265,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7311,17 +7288,17 @@
     <row r="135" ht="16.5" customHeight="1" s="13">
       <c r="A135" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B135" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7338,14 +7315,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7356,17 +7338,17 @@
     <row r="136" ht="16.5" customHeight="1" s="13">
       <c r="A136" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
+          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7383,14 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7401,17 +7388,17 @@
     <row r="137" ht="16.5" customHeight="1" s="13">
       <c r="A137" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7428,14 +7415,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7446,17 +7438,17 @@
     <row r="138" ht="16.5" customHeight="1" s="13">
       <c r="A138" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7473,14 +7465,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7491,17 +7483,17 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7518,14 +7510,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7536,17 +7528,17 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
+          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7563,14 +7555,19 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7581,17 +7578,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7608,14 +7605,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7626,23 +7628,23 @@
     <row r="142" ht="16.5" customHeight="1" s="13">
       <c r="A142" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7653,14 +7655,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7671,17 +7678,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7698,14 +7705,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7716,17 +7723,17 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7743,14 +7750,19 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7761,17 +7773,17 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7788,14 +7800,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7806,17 +7818,17 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7833,14 +7845,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7851,17 +7863,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7878,14 +7890,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7896,17 +7908,17 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7923,14 +7935,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7941,23 +7953,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7968,14 +7980,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7986,17 +7998,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8013,14 +8025,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8031,17 +8043,17 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8058,14 +8070,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8081,18 +8093,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8103,14 +8115,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8126,12 +8138,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8148,14 +8160,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8171,12 +8183,12 @@
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8193,14 +8205,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8216,18 +8228,18 @@
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8238,14 +8250,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8261,18 +8273,18 @@
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8283,14 +8295,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8306,18 +8318,18 @@
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8328,14 +8340,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8351,18 +8363,18 @@
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8373,14 +8385,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8396,18 +8408,18 @@
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8418,14 +8430,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8441,12 +8453,12 @@
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8463,14 +8475,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8486,12 +8498,12 @@
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8508,14 +8520,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8531,18 +8543,18 @@
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8553,14 +8565,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8576,12 +8588,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8598,14 +8610,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8626,13 +8638,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8643,14 +8655,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8666,12 +8678,12 @@
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8688,14 +8700,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8711,12 +8723,12 @@
       </c>
       <c r="B166" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8733,14 +8745,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8756,12 +8768,12 @@
       </c>
       <c r="B167" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8778,14 +8790,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8801,12 +8813,12 @@
       </c>
       <c r="B168" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8823,14 +8835,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8846,18 +8858,18 @@
       </c>
       <c r="B169" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8868,14 +8880,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8891,12 +8903,12 @@
       </c>
       <c r="B170" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8913,14 +8925,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8936,12 +8948,12 @@
       </c>
       <c r="B171" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8958,14 +8970,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8981,12 +8993,12 @@
       </c>
       <c r="B172" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9003,14 +9015,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9026,12 +9038,12 @@
       </c>
       <c r="B173" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9048,14 +9060,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9066,23 +9078,23 @@
     <row r="174" ht="16.5" customHeight="1" s="13">
       <c r="A174" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9093,14 +9105,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9116,12 +9128,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9138,14 +9150,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9161,12 +9173,12 @@
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9183,14 +9195,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9201,23 +9213,23 @@
     <row r="177" ht="16.5" customHeight="1" s="13">
       <c r="A177" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
       <c r="E177" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9228,14 +9240,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9246,17 +9258,17 @@
     <row r="178" ht="16.5" customHeight="1" s="13">
       <c r="A178" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9273,14 +9285,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9291,17 +9303,17 @@
     <row r="179" ht="16.5" customHeight="1" s="13">
       <c r="A179" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9318,14 +9330,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9341,18 +9353,18 @@
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
       <c r="E180" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9363,14 +9375,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9381,23 +9393,23 @@
     <row r="181" ht="16.5" customHeight="1" s="13">
       <c r="A181" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9408,14 +9420,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9426,17 +9438,17 @@
     <row r="182" ht="16.5" customHeight="1" s="13">
       <c r="A182" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9453,14 +9465,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9471,23 +9483,23 @@
     <row r="183" ht="16.5" customHeight="1" s="13">
       <c r="A183" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B183" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
       <c r="E183" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9498,14 +9510,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9521,18 +9533,18 @@
       </c>
       <c r="B184" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
       <c r="E184" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9543,14 +9555,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9566,18 +9578,18 @@
       </c>
       <c r="B185" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
       <c r="E185" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9588,14 +9600,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9606,17 +9618,17 @@
     <row r="186" ht="16.5" customHeight="1" s="13">
       <c r="A186" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9633,14 +9645,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9656,18 +9668,18 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
       <c r="E187" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9678,14 +9690,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9701,18 +9713,18 @@
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
       <c r="E188" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9723,14 +9735,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9746,12 +9758,12 @@
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9768,14 +9780,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9791,12 +9803,12 @@
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9813,14 +9825,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9836,12 +9848,12 @@
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9858,14 +9870,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9881,18 +9893,18 @@
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
       <c r="E192" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9903,14 +9915,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9926,12 +9938,12 @@
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9948,14 +9960,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9966,23 +9978,23 @@
     <row r="194" ht="16.5" customHeight="1" s="13">
       <c r="A194" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
       <c r="E194" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9993,14 +10005,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10011,17 +10023,17 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10038,14 +10050,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -4205,7 +4205,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Si el tráfico entre regiones de Azure debe cifrarse, use el emparejamiento de red virtual global para conectar redes virtuales entre regiones.</t>
+          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,7 +4222,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4234,7 +4234,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,19 +4272,15 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="n"/>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4305,13 +4301,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4322,7 +4318,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4326,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4351,13 +4347,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,7 +4364,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4376,7 +4372,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,13 +4393,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4414,7 +4410,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4418,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4439,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4456,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4484,18 +4480,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,15 +4502,19 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
+          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,19 +4552,15 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="n"/>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4602,7 +4598,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4610,7 +4606,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4631,7 +4627,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4648,7 +4644,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4652,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,7 +4690,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4702,7 +4698,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4719,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,15 +4736,19 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
+          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,19 +4886,15 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="n"/>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4914,12 +4910,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4936,15 +4932,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4982,7 +4982,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
@@ -4994,7 +4994,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5044,7 +5044,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,7 +5082,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
@@ -5144,7 +5144,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,7 +5182,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5194,7 +5194,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,7 +5232,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5244,7 +5244,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,7 +5282,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5294,7 +5294,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,7 +5332,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5344,7 +5344,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,7 +5382,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
@@ -5394,7 +5394,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,7 +5432,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5444,7 +5444,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,7 +5482,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5494,7 +5494,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
+          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5594,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5644,7 +5644,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5694,7 +5694,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,7 +5782,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5794,7 +5794,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5885,16 +5885,12 @@
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5915,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5932,15 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
+          <t>Evalúe si la versión más reciente de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,19 +6028,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6061,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Evalúe si la versión más reciente de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
+          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6078,7 +6074,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6086,7 +6082,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6107,7 +6103,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque puede ser aceptable para escenarios a pequeña escala, no lo recomendamos a escala debido a la complejidad y los problemas de compatibilidad que pueden surgir.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6120,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6143,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque puede ser aceptable para escenarios a pequeña escala, no lo recomendamos a escala debido a la complejidad y los problemas de compatibilidad que pueden surgir.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,15 +6165,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está disponible de forma general tanto para Virtual WAN como para redes virtuales normales.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,7 +6215,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
@@ -6227,7 +6227,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está disponible de forma general tanto para Virtual WAN como para redes virtuales normales.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6277,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6327,7 +6327,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6370,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6427,7 +6427,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,7 +6465,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6477,7 +6477,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6520,14 +6520,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
+          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6670,14 +6670,14 @@
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6715,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6770,14 +6770,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6820,14 +6820,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6877,7 +6877,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6927,7 +6927,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6977,7 +6977,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,7 +7115,7 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7127,7 +7127,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,7 +7165,7 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7177,7 +7177,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7220,14 +7220,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7270,14 +7270,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
+          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7320,14 +7320,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,19 +7415,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7448,7 +7443,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7472,7 +7467,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7493,7 +7488,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
+          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7511,13 +7506,18 @@
       <c r="H139" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
+          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7560,14 +7560,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7617,7 +7617,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7656,18 +7656,13 @@
       <c r="H142" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7688,7 +7683,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7706,13 +7701,18 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7751,18 +7751,13 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7783,7 +7778,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
+          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7807,7 +7802,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7828,7 +7823,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7845,14 +7840,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7873,7 +7868,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7890,14 +7885,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7908,23 +7903,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7935,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7963,13 +7958,13 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7980,14 +7975,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8008,7 +8003,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8025,14 +8020,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8043,7 +8038,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8053,13 +8048,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8070,14 +8065,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8098,13 +8093,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8115,14 +8110,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8143,13 +8138,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8160,14 +8155,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8188,7 +8183,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8205,14 +8200,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8233,7 +8228,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8250,14 +8245,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8278,7 +8273,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8295,14 +8290,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8323,7 +8318,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8340,14 +8335,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8368,13 +8363,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8385,14 +8380,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8413,7 +8408,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8430,14 +8425,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8458,7 +8453,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8475,14 +8470,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8503,13 +8498,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8520,14 +8515,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8548,13 +8543,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8565,14 +8560,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8588,18 +8583,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8610,14 +8605,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8638,13 +8633,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8655,14 +8650,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8683,7 +8678,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8700,14 +8695,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8728,7 +8723,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8752,7 +8747,7 @@
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8773,7 +8768,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8797,7 +8792,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8818,13 +8813,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8842,7 +8837,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8863,13 +8858,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8887,7 +8882,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8908,7 +8903,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8932,7 +8927,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8953,7 +8948,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8977,7 +8972,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8998,7 +8993,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9015,14 +9010,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9043,7 +9038,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9060,14 +9055,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9083,18 +9078,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9105,14 +9100,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9133,13 +9128,13 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9150,14 +9145,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9178,7 +9173,7 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9195,14 +9190,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9223,7 +9218,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9247,7 +9242,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9268,7 +9263,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9292,7 +9287,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9313,7 +9308,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9337,7 +9332,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9358,7 +9353,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9382,7 +9377,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9403,7 +9398,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9420,14 +9415,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9448,7 +9443,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9465,14 +9460,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9493,7 +9488,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9510,14 +9505,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9538,7 +9533,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9555,14 +9550,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9583,7 +9578,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9607,7 +9602,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9623,12 +9618,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9645,14 +9640,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9673,7 +9668,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9690,14 +9685,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9718,7 +9713,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9735,14 +9730,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9763,7 +9758,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9787,7 +9782,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9808,7 +9803,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9825,14 +9820,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9853,7 +9848,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9870,14 +9865,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9898,7 +9893,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9915,14 +9910,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9943,7 +9938,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9960,14 +9955,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9988,7 +9983,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10012,7 +10007,7 @@
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10023,41 +10018,41 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
       <c r="E195" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>No verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -11617,7 +11612,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11701,7 +11696,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11758,43 +11753,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.es.xlsx
+++ b/spreadsheet/lz_checklist.es.xlsx
@@ -1122,12 +1122,12 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J8" s="23" t="n"/>
@@ -1172,12 +1172,12 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1222,12 +1222,12 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
@@ -1272,12 +1272,12 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1322,12 +1322,12 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1372,12 +1372,12 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
@@ -1422,12 +1422,12 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
@@ -1472,12 +1472,12 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1522,12 +1522,12 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1622,12 +1622,12 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
@@ -1672,12 +1672,12 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1722,12 +1722,12 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1772,12 +1772,12 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -1822,12 +1822,12 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
@@ -1922,12 +1922,12 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
@@ -1972,12 +1972,12 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
@@ -2022,12 +2022,12 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
@@ -2072,12 +2072,12 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2122,7 +2122,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -2167,7 +2167,7 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
@@ -2212,7 +2212,7 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
@@ -2257,7 +2257,7 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
@@ -2302,7 +2302,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2348,12 +2348,12 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2398,12 +2398,12 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
@@ -2498,12 +2498,12 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2548,12 +2548,12 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
@@ -2598,12 +2598,12 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
@@ -2740,12 +2740,12 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2832,12 +2832,12 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2882,12 +2882,12 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2932,12 +2932,12 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -2982,12 +2982,12 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
@@ -3032,12 +3032,12 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3082,12 +3082,12 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
@@ -3132,7 +3132,7 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
@@ -3177,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3223,7 +3223,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3269,7 +3269,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3315,7 +3315,7 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
@@ -3360,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3406,7 +3406,7 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3451,7 +3451,7 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
@@ -3496,7 +3496,7 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
@@ -3541,7 +3541,7 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
@@ -3586,7 +3586,7 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
@@ -3631,7 +3631,7 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -3676,12 +3676,12 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, utilice Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, asegúrese de que la protección y las directivas de WAF estén habilitadas en las puertas de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3726,12 +3726,12 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
+          <t>Asegúrese de que está utilizando SKU de Application Gateway v2</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3776,19 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3826,19 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3876,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3926,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
+          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3976,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4026,19 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4059,13 +4059,13 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4076,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4109,13 +4109,13 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4126,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4176,15 +4176,19 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4205,7 +4209,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios de WAN virtual en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN de Virtual WAN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,19 +4226,15 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I72" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="n"/>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,15 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4301,13 +4305,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4318,7 +4322,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4326,7 +4330,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4347,13 +4351,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,7 +4368,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4372,7 +4376,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4393,13 +4397,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4410,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4418,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4439,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4456,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4464,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4480,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,15 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4581,7 +4585,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4598,7 +4602,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4606,7 +4610,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4627,7 +4631,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4644,7 +4648,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4652,7 +4656,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4673,7 +4677,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
+          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4690,7 +4694,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4698,7 +4702,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4719,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4736,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,15 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4910,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4932,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4960,18 +4960,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4982,19 +4982,15 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5011,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5032,19 +5028,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5061,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,19 +5078,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5111,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,19 +5128,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5161,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,19 +5178,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5211,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,19 +5228,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5261,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,19 +5278,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5311,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,19 +5328,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5361,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,19 +5378,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5411,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,19 +5428,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5461,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,19 +5478,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5506,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5528,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5560,12 +5556,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
+          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5582,19 +5578,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5611,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5632,19 +5628,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5661,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
+          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5682,19 +5678,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5711,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5728,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5761,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,19 +5778,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5811,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5832,19 +5828,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5861,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5882,15 +5878,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5928,19 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,15 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6006,12 +6002,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Evalúe si la versión más reciente de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,15 +6024,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6074,15 +6074,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6103,7 +6107,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque puede ser aceptable para escenarios a pequeña escala, no lo recomendamos a escala debido a la complejidad y los problemas de compatibilidad que pueden surgir.</t>
+          <t>Evalúe si la versión más reciente de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6120,14 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6143,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6165,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6193,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está disponible de forma general tanto para Virtual WAN como para redes virtuales normales.</t>
+          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque puede ser aceptable para escenarios a pequeña escala, no lo recomendamos a escala debido a la complejidad y los problemas de compatibilidad que pueden surgir.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,19 +6215,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6244,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6265,19 +6261,19 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6294,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está disponible de forma general tanto para Virtual WAN como para redes virtuales normales.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6315,19 +6311,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6344,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6365,19 +6361,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6394,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,19 +6411,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6444,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,19 +6461,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6494,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6515,19 +6511,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6544,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6561,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6589,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
+          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6611,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6643,12 +6639,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6665,19 +6661,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6694,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6711,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6744,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6765,19 +6761,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6794,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6815,19 +6811,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6844,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6865,19 +6861,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6894,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6915,19 +6911,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6944,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6965,19 +6961,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6989,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7011,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7043,12 +7039,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7061,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7094,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,19 +7111,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7144,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,19 +7161,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7194,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7215,19 +7211,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7244,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7265,19 +7261,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7294,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7315,19 +7311,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7339,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7361,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7393,12 +7389,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,14 +7411,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7443,7 +7444,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7460,14 +7461,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7488,7 +7494,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7505,19 +7511,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7539,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7555,19 +7556,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7584,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
+          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7605,19 +7601,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7634,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7655,14 +7651,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7683,7 +7684,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
+          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7700,19 +7701,19 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7734,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7750,14 +7751,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7778,7 +7779,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7795,14 +7796,19 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7823,7 +7829,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7840,14 +7846,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7868,7 +7874,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,14 +7891,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7903,23 +7909,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7930,14 +7936,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7948,17 +7954,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7975,14 +7981,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8003,13 +8009,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8020,14 +8026,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8038,7 +8044,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8048,13 +8054,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8065,14 +8071,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8083,7 +8089,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8093,7 +8099,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8110,14 +8116,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8138,7 +8144,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8155,14 +8161,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8183,13 +8189,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8200,14 +8206,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8228,7 +8234,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,14 +8251,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8273,7 +8279,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,14 +8296,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8318,7 +8324,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8335,14 +8341,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8363,13 +8369,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8380,14 +8386,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8408,13 +8414,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8425,14 +8431,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8453,7 +8459,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8470,14 +8476,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8498,13 +8504,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8515,14 +8521,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8543,7 +8549,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8560,14 +8566,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8583,18 +8589,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8605,14 +8611,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8628,12 +8634,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8650,14 +8656,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8678,13 +8684,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8695,14 +8701,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8723,7 +8729,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8740,14 +8746,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8768,7 +8774,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8785,14 +8791,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8813,13 +8819,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8830,14 +8836,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,7 +8864,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8875,14 +8881,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,13 +8909,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8920,14 +8926,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8948,7 +8954,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8965,14 +8971,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8993,7 +8999,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9010,14 +9016,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9038,7 +9044,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,14 +9061,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9078,18 +9084,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9100,14 +9106,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9123,12 +9129,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9145,14 +9151,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9173,13 +9179,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9190,14 +9196,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9218,7 +9224,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,14 +9241,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9263,7 +9269,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9280,14 +9286,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9308,7 +9314,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9325,14 +9331,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9353,7 +9359,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9370,14 +9376,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,7 +9404,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9415,14 +9421,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,7 +9449,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,14 +9466,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9488,7 +9494,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,14 +9511,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9533,7 +9539,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,14 +9556,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9578,7 +9584,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,14 +9601,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9618,12 +9624,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9640,14 +9646,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9663,12 +9669,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,14 +9691,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9713,7 +9719,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9730,14 +9736,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9758,7 +9764,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9775,14 +9781,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9803,7 +9809,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9820,14 +9826,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9848,7 +9854,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,14 +9871,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9893,7 +9899,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,14 +9916,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,7 +9944,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9955,14 +9961,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,7 +9989,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,14 +10006,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10018,41 +10024,41 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
       <c r="E195" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10061,15 +10067,45 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="n"/>
-      <c r="B196" s="22" t="n"/>
-      <c r="C196" s="22" t="n"/>
+      <c r="A196" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C196" s="22" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+        </is>
+      </c>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="n"/>
+      <c r="E196" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G196" s="22" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="n"/>
+      <c r="L196" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11789,7 +11825,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
